--- a/Code/Results/Cases/Case_8_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.24947133060482</v>
+        <v>2.922561782999423</v>
       </c>
       <c r="C2">
-        <v>0.896948190896893</v>
+        <v>0.9785771592484593</v>
       </c>
       <c r="D2">
-        <v>0.05029486767162261</v>
+        <v>0.03724924933145823</v>
       </c>
       <c r="E2">
-        <v>0.04152602915532366</v>
+        <v>0.04890687987154863</v>
       </c>
       <c r="F2">
-        <v>1.903436868663306</v>
+        <v>1.573978036328981</v>
       </c>
       <c r="G2">
-        <v>0.000812120413668246</v>
+        <v>0.004364696688872238</v>
       </c>
       <c r="H2">
-        <v>0.002637674695202596</v>
+        <v>0.001237570132323063</v>
       </c>
       <c r="I2">
-        <v>0.002030944968681947</v>
+        <v>0.0008178432680026049</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.065833890561017</v>
+        <v>0.822123388618401</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3616997506621402</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2613893259543545</v>
       </c>
       <c r="N2">
-        <v>0.186472914187398</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5406256282635482</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.097282365233369</v>
+        <v>0.2044474542267025</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.503822730474802</v>
+      </c>
+      <c r="R2">
+        <v>0.9353835082784379</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.832637797865061</v>
+        <v>2.554765210326536</v>
       </c>
       <c r="C3">
-        <v>0.7750255689736605</v>
+        <v>0.8489606217640357</v>
       </c>
       <c r="D3">
-        <v>0.04996447398004733</v>
+        <v>0.03630969103655102</v>
       </c>
       <c r="E3">
-        <v>0.03640346899345204</v>
+        <v>0.0449244855867228</v>
       </c>
       <c r="F3">
-        <v>1.729394291568198</v>
+        <v>1.431822023248088</v>
       </c>
       <c r="G3">
-        <v>0.0008177244350934254</v>
+        <v>0.007916979821933512</v>
       </c>
       <c r="H3">
-        <v>0.004883614069778552</v>
+        <v>0.00248525437749747</v>
       </c>
       <c r="I3">
-        <v>0.004160923421741458</v>
+        <v>0.001573380412769332</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9967157491170653</v>
+        <v>0.7747403661503967</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3529618514478514</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2355491841316635</v>
       </c>
       <c r="N3">
-        <v>0.1649367832219326</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4727684258526423</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.12282365532716</v>
+        <v>0.1825614422800257</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4414578285348654</v>
+      </c>
+      <c r="R3">
+        <v>0.9628092520474745</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.576893425910555</v>
+        <v>2.328007638867859</v>
       </c>
       <c r="C4">
-        <v>0.7010472708065834</v>
+        <v>0.769900615505378</v>
       </c>
       <c r="D4">
-        <v>0.04972139357297856</v>
+        <v>0.03569338812460221</v>
       </c>
       <c r="E4">
-        <v>0.0333340914396949</v>
+        <v>0.04249192232822274</v>
       </c>
       <c r="F4">
-        <v>1.623646469965863</v>
+        <v>1.34464765388546</v>
       </c>
       <c r="G4">
-        <v>0.0008212784262567259</v>
+        <v>0.01071241685000968</v>
       </c>
       <c r="H4">
-        <v>0.006659623189036401</v>
+        <v>0.003499988778273844</v>
       </c>
       <c r="I4">
-        <v>0.006005743726252177</v>
+        <v>0.00234740325953231</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9545636865886564</v>
+        <v>0.7454651885389723</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3471944460065544</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2204867500723893</v>
       </c>
       <c r="N4">
-        <v>0.1517739259677384</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4311479525611048</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.138767775555479</v>
+        <v>0.1691638808980329</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4030757962950418</v>
+      </c>
+      <c r="R4">
+        <v>0.9798382502483314</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.470638540315235</v>
+        <v>2.233519259776756</v>
       </c>
       <c r="C5">
-        <v>0.6714647352090992</v>
+        <v>0.738166385573976</v>
       </c>
       <c r="D5">
-        <v>0.04956762824956407</v>
+        <v>0.03541171337337135</v>
       </c>
       <c r="E5">
-        <v>0.03209643568827047</v>
+        <v>0.0415016852582184</v>
       </c>
       <c r="F5">
-        <v>1.578994325724921</v>
+        <v>1.307568156638538</v>
       </c>
       <c r="G5">
-        <v>0.0008227660454421497</v>
+        <v>0.01200739050310451</v>
       </c>
       <c r="H5">
-        <v>0.007484050282690724</v>
+        <v>0.003976558279078946</v>
       </c>
       <c r="I5">
-        <v>0.006968837879005818</v>
+        <v>0.00282595607912306</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9361512537376129</v>
+        <v>0.7324168899763066</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3442874056336507</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2142001224801646</v>
       </c>
       <c r="N5">
-        <v>0.1464682882895758</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4139628895343748</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.144564201580742</v>
+        <v>0.1637581201965901</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3872002370081873</v>
+      </c>
+      <c r="R5">
+        <v>0.9863472902706683</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.450491141086502</v>
+        <v>2.215572388442183</v>
       </c>
       <c r="C6">
-        <v>0.6670193314371033</v>
+        <v>0.7333568667895349</v>
       </c>
       <c r="D6">
-        <v>0.04948706936950131</v>
+        <v>0.03533945161090268</v>
       </c>
       <c r="E6">
-        <v>0.03188877297585169</v>
+        <v>0.04133664035799178</v>
       </c>
       <c r="F6">
-        <v>1.569388473148138</v>
+        <v>1.299499126759798</v>
       </c>
       <c r="G6">
-        <v>0.0008230273736421534</v>
+        <v>0.01224247795356159</v>
       </c>
       <c r="H6">
-        <v>0.007634265738062918</v>
+        <v>0.004063802256054183</v>
       </c>
       <c r="I6">
-        <v>0.007246250160054757</v>
+        <v>0.003027809565596229</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9315154700324229</v>
+        <v>0.7289434489247384</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3432435473579289</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.212744141969047</v>
       </c>
       <c r="N6">
-        <v>0.1456452551404084</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4108292044749646</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.144602205136835</v>
+        <v>0.1629172886908208</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.384307221998867</v>
+      </c>
+      <c r="R6">
+        <v>0.9868541106732174</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.56859375325115</v>
+        <v>2.311443067499567</v>
       </c>
       <c r="C7">
-        <v>0.701895091239237</v>
+        <v>0.7642909135662705</v>
       </c>
       <c r="D7">
-        <v>0.04957090543206633</v>
+        <v>0.03550015121739403</v>
       </c>
       <c r="E7">
-        <v>0.03330890627594041</v>
+        <v>0.04228203425281052</v>
       </c>
       <c r="F7">
-        <v>1.61700808696007</v>
+        <v>1.328199761982006</v>
       </c>
       <c r="G7">
-        <v>0.0008213322057535529</v>
+        <v>0.01113180646297129</v>
       </c>
       <c r="H7">
-        <v>0.006689818947969883</v>
+        <v>0.003538638906633418</v>
       </c>
       <c r="I7">
-        <v>0.006299149858262965</v>
+        <v>0.002676307190682792</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9499883097439508</v>
+        <v>0.7363857700964189</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3434123748264284</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2174556690949316</v>
       </c>
       <c r="N7">
-        <v>0.1518594728743281</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4301476473793713</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.13632500524097</v>
+        <v>0.1690211946623492</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4008218952345572</v>
+      </c>
+      <c r="R7">
+        <v>0.976095300637688</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.096468528213393</v>
+        <v>2.757001605602113</v>
       </c>
       <c r="C8">
-        <v>0.8563673172939161</v>
+        <v>0.9138003047818586</v>
       </c>
       <c r="D8">
-        <v>0.04999499660614326</v>
+        <v>0.03650080771448372</v>
       </c>
       <c r="E8">
-        <v>0.03972943236759363</v>
+        <v>0.04687261932822473</v>
       </c>
       <c r="F8">
-        <v>1.835136219703017</v>
+        <v>1.482405386881965</v>
       </c>
       <c r="G8">
-        <v>0.0008140726387227007</v>
+        <v>0.007302485456323282</v>
       </c>
       <c r="H8">
-        <v>0.00334389016095471</v>
+        <v>0.001670194933124591</v>
       </c>
       <c r="I8">
-        <v>0.002972509392029643</v>
+        <v>0.001403512410128371</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.0361837643513</v>
+        <v>0.7835138669086277</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3498156221810476</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2444959529957345</v>
       </c>
       <c r="N8">
-        <v>0.1792424111754869</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5161840896197631</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.102766850411257</v>
+        <v>0.1963475098020737</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4768981064519195</v>
+      </c>
+      <c r="R8">
+        <v>0.9359546304808521</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.147669062942839</v>
+        <v>3.668367849615208</v>
       </c>
       <c r="C9">
-        <v>1.165506578126269</v>
+        <v>1.232897207510803</v>
       </c>
       <c r="D9">
-        <v>0.05076293717735147</v>
+        <v>0.03866013720060812</v>
       </c>
       <c r="E9">
-        <v>0.05310880992212219</v>
+        <v>0.0567362964817697</v>
       </c>
       <c r="F9">
-        <v>2.284409818687891</v>
+        <v>1.834542173921378</v>
       </c>
       <c r="G9">
-        <v>0.0008006464590803891</v>
+        <v>0.002158502110588323</v>
       </c>
       <c r="H9">
-        <v>0.0001765100539343756</v>
+        <v>3.440958961231644E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006825346849161917</v>
+        <v>0.001026764323548868</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.215934741327743</v>
+        <v>0.9003252154994783</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3698588687466611</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3126593058911595</v>
       </c>
       <c r="N9">
-        <v>0.233312170748178</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6869756955115704</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.043666678198257</v>
+        <v>0.2508905395710599</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6316475597993829</v>
+      </c>
+      <c r="R9">
+        <v>0.8694872589407439</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.893142408533834</v>
+        <v>4.254509856319828</v>
       </c>
       <c r="C10">
-        <v>1.401740980484021</v>
+        <v>1.433374553461874</v>
       </c>
       <c r="D10">
-        <v>0.05037863816180632</v>
+        <v>0.03958461838024485</v>
       </c>
       <c r="E10">
-        <v>0.06504387722191574</v>
+        <v>0.06441391414499975</v>
       </c>
       <c r="F10">
-        <v>2.590304880606453</v>
+        <v>2.007255574488894</v>
       </c>
       <c r="G10">
-        <v>0.0007914463280248289</v>
+        <v>0.00912296101590826</v>
       </c>
       <c r="H10">
-        <v>0.0004585755671433489</v>
+        <v>0.0004517933728012125</v>
       </c>
       <c r="I10">
-        <v>0.00243868729354535</v>
+        <v>0.002642814089231393</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.328395159971492</v>
+        <v>0.9394309766199953</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3661086488431522</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3486958051916247</v>
       </c>
       <c r="N10">
-        <v>0.2613661385646537</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.800380360446276</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.989672171042649</v>
+        <v>0.2772063888296543</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7252698722313724</v>
+      </c>
+      <c r="R10">
+        <v>0.8075712344993882</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.972561721946533</v>
+        <v>4.224647181603245</v>
       </c>
       <c r="C11">
-        <v>1.523247562060533</v>
+        <v>1.463140161577144</v>
       </c>
       <c r="D11">
-        <v>0.04533014226282361</v>
+        <v>0.04128797437442344</v>
       </c>
       <c r="E11">
-        <v>0.08740858012130204</v>
+        <v>0.08142336848384168</v>
       </c>
       <c r="F11">
-        <v>2.461162874194514</v>
+        <v>1.781005392467861</v>
       </c>
       <c r="G11">
-        <v>0.0007887575171959815</v>
+        <v>0.04295664257012177</v>
       </c>
       <c r="H11">
-        <v>0.0190975866114691</v>
+        <v>0.0189722540458952</v>
       </c>
       <c r="I11">
-        <v>0.003739133435791686</v>
+        <v>0.00361313762155735</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.202073765839572</v>
+        <v>0.7865948263044373</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3044842672335122</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2970323176571625</v>
       </c>
       <c r="N11">
-        <v>0.1785094280941948</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7433491217467321</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8784683745146147</v>
+        <v>0.1878432339549363</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6560101844256465</v>
+      </c>
+      <c r="R11">
+        <v>0.7495664155875987</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.890039752386599</v>
+        <v>4.118791737047957</v>
       </c>
       <c r="C12">
-        <v>1.573688697911052</v>
+        <v>1.467370238686499</v>
       </c>
       <c r="D12">
-        <v>0.04283955855011001</v>
+        <v>0.04490363636909933</v>
       </c>
       <c r="E12">
-        <v>0.110098300523525</v>
+        <v>0.1000572711275076</v>
       </c>
       <c r="F12">
-        <v>2.298857357390418</v>
+        <v>1.606576446853751</v>
       </c>
       <c r="G12">
-        <v>0.0007882592345343705</v>
+        <v>0.06726792992274255</v>
       </c>
       <c r="H12">
-        <v>0.0576947479250336</v>
+        <v>0.05756255353340123</v>
       </c>
       <c r="I12">
-        <v>0.003831557095106852</v>
+        <v>0.003592021820246316</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.08318231983921</v>
+        <v>0.6809914584329064</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2652655832103505</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2574850249555496</v>
       </c>
       <c r="N12">
-        <v>0.1185191440294062</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6746320878604948</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8156292562983509</v>
+        <v>0.1242649730720515</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5868582783153897</v>
+      </c>
+      <c r="R12">
+        <v>0.7413290641866155</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.667548277211324</v>
+        <v>3.961368380310034</v>
       </c>
       <c r="C13">
-        <v>1.573385893034924</v>
+        <v>1.470941887209221</v>
       </c>
       <c r="D13">
-        <v>0.04191234487229689</v>
+        <v>0.04801094250935023</v>
       </c>
       <c r="E13">
-        <v>0.1339045435094448</v>
+        <v>0.1228989760564083</v>
       </c>
       <c r="F13">
-        <v>2.092325849658138</v>
+        <v>1.471053739281345</v>
       </c>
       <c r="G13">
-        <v>0.0007894654659808269</v>
+        <v>0.06128511076977716</v>
       </c>
       <c r="H13">
-        <v>0.1132632370678692</v>
+        <v>0.1132033953580276</v>
       </c>
       <c r="I13">
-        <v>0.003278318345787845</v>
+        <v>0.00324067438419906</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9566516247415038</v>
+        <v>0.605331472240124</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2396039427421357</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2260317842170352</v>
       </c>
       <c r="N13">
-        <v>0.07319229396777516</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5923346473027351</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7816559505288332</v>
+        <v>0.07713158831329636</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5152549518061633</v>
+      </c>
+      <c r="R13">
+        <v>0.7546685556661643</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.447827601644804</v>
+        <v>3.824463759747232</v>
       </c>
       <c r="C14">
-        <v>1.550667704130944</v>
+        <v>1.472986249629173</v>
       </c>
       <c r="D14">
-        <v>0.04214240722400575</v>
+        <v>0.04953587468899201</v>
       </c>
       <c r="E14">
-        <v>0.1516864179644912</v>
+        <v>0.1420828901018325</v>
       </c>
       <c r="F14">
-        <v>1.927950344637964</v>
+        <v>1.388966320798502</v>
       </c>
       <c r="G14">
-        <v>0.0007910818191888495</v>
+        <v>0.0445417060237574</v>
       </c>
       <c r="H14">
-        <v>0.1624892027264622</v>
+        <v>0.1624772701687647</v>
       </c>
       <c r="I14">
-        <v>0.002758404421019378</v>
+        <v>0.002962315933430659</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8650614840305693</v>
+        <v>0.5628061925137331</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2263529580917023</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2067764141390427</v>
       </c>
       <c r="N14">
-        <v>0.05054772284414</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5293557194429255</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7725524604613352</v>
+        <v>0.05373703217044223</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4638652538528945</v>
+      </c>
+      <c r="R14">
+        <v>0.770146724147871</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.362676365148502</v>
+        <v>3.77584386823969</v>
       </c>
       <c r="C15">
-        <v>1.534832047557131</v>
+        <v>1.472660227146321</v>
       </c>
       <c r="D15">
-        <v>0.0423478375254458</v>
+        <v>0.04945886759625751</v>
       </c>
       <c r="E15">
-        <v>0.155369327063589</v>
+        <v>0.1470793169086342</v>
       </c>
       <c r="F15">
-        <v>1.876563175834477</v>
+        <v>1.372007422185092</v>
       </c>
       <c r="G15">
-        <v>0.0007918653061427028</v>
+        <v>0.03609760512142657</v>
       </c>
       <c r="H15">
-        <v>0.1749606864093494</v>
+        <v>0.1749588659907602</v>
       </c>
       <c r="I15">
-        <v>0.002641415947870485</v>
+        <v>0.002961094019846122</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8394194060108973</v>
+        <v>0.5553214688725987</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2246099367013485</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2025876105300739</v>
       </c>
       <c r="N15">
-        <v>0.04612500505088235</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5107727495000631</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7741607962561914</v>
+        <v>0.04930415292074031</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4499047844604007</v>
+      </c>
+      <c r="R15">
+        <v>0.7747555932679298</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.088115440132071</v>
+        <v>3.637691131758231</v>
       </c>
       <c r="C16">
-        <v>1.432065649361164</v>
+        <v>1.448036059146489</v>
       </c>
       <c r="D16">
-        <v>0.04262786981842659</v>
+        <v>0.04520002713552529</v>
       </c>
       <c r="E16">
-        <v>0.1443615697891083</v>
+        <v>0.1437003064204028</v>
       </c>
       <c r="F16">
-        <v>1.786669391811643</v>
+        <v>1.403282439430384</v>
       </c>
       <c r="G16">
-        <v>0.0007955526353588265</v>
+        <v>0.007970451678314561</v>
       </c>
       <c r="H16">
-        <v>0.1621645877278723</v>
+        <v>0.1621055935777633</v>
       </c>
       <c r="I16">
-        <v>0.00195341716709585</v>
+        <v>0.002544350891953151</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8168054690030218</v>
+        <v>0.585512184443985</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2402120956787712</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2081117930157319</v>
       </c>
       <c r="N16">
-        <v>0.04502678246790914</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4809582978985176</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.801334771406284</v>
+        <v>0.04983832317238424</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.435644747093491</v>
+      </c>
+      <c r="R16">
+        <v>0.7801194394936459</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.993524206955044</v>
+        <v>3.590414499071017</v>
       </c>
       <c r="C17">
-        <v>1.3658682378516</v>
+        <v>1.417011378417612</v>
       </c>
       <c r="D17">
-        <v>0.04258935230167538</v>
+        <v>0.04225743423536699</v>
       </c>
       <c r="E17">
-        <v>0.1261319176216382</v>
+        <v>0.128858220611729</v>
       </c>
       <c r="F17">
-        <v>1.804128331447259</v>
+        <v>1.459812448170197</v>
       </c>
       <c r="G17">
-        <v>0.0007975348242664907</v>
+        <v>0.002106574384596271</v>
       </c>
       <c r="H17">
-        <v>0.1244407481729439</v>
+        <v>0.1242866551775563</v>
       </c>
       <c r="I17">
-        <v>0.001774993558607996</v>
+        <v>0.002399417983309782</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8470819359392863</v>
+        <v>0.6276883654900871</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2585784653171856</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.220616307649891</v>
       </c>
       <c r="N17">
-        <v>0.05449199811331695</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4908169204695554</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8259419009172349</v>
+        <v>0.06112686034454029</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4502824203568707</v>
+      </c>
+      <c r="R17">
+        <v>0.7835657182975453</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.047499969834632</v>
+        <v>3.641550518948407</v>
       </c>
       <c r="C18">
-        <v>1.321934397947359</v>
+        <v>1.390790135005659</v>
       </c>
       <c r="D18">
-        <v>0.04299799102366642</v>
+        <v>0.03989330773249478</v>
       </c>
       <c r="E18">
-        <v>0.1024460531011755</v>
+        <v>0.1063352976323273</v>
       </c>
       <c r="F18">
-        <v>1.921864916032263</v>
+        <v>1.570297453700064</v>
       </c>
       <c r="G18">
-        <v>0.0007981831273939443</v>
+        <v>0.0007886723310566168</v>
       </c>
       <c r="H18">
-        <v>0.07162466732994233</v>
+        <v>0.07144630912947036</v>
       </c>
       <c r="I18">
-        <v>0.001517119551903257</v>
+        <v>0.002098684334298717</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9320453615355646</v>
+        <v>0.6983561723553251</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2862169790259586</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2456824063983518</v>
       </c>
       <c r="N18">
-        <v>0.08210409432466292</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5379056898264665</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8596881001622503</v>
+        <v>0.09134013792031226</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4960296433524505</v>
+      </c>
+      <c r="R18">
+        <v>0.7889318593232399</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.204754155590081</v>
+        <v>3.765435176561084</v>
       </c>
       <c r="C19">
-        <v>1.301516335321878</v>
+        <v>1.379229338658888</v>
       </c>
       <c r="D19">
-        <v>0.04475598000994818</v>
+        <v>0.03874501732643765</v>
       </c>
       <c r="E19">
-        <v>0.08028367730520003</v>
+        <v>0.08402219115847842</v>
       </c>
       <c r="F19">
-        <v>2.105645527240313</v>
+        <v>1.718646438877883</v>
       </c>
       <c r="G19">
-        <v>0.0007976859463929971</v>
+        <v>0.000500067247171998</v>
       </c>
       <c r="H19">
-        <v>0.02630692161748271</v>
+        <v>0.02619725644852622</v>
       </c>
       <c r="I19">
-        <v>0.001701186331317217</v>
+        <v>0.002329446363884102</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.05312718427156</v>
+        <v>0.7884282845004407</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3198011193709647</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2797165005375462</v>
       </c>
       <c r="N19">
-        <v>0.1346717859710722</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6130139403261694</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9082006078885811</v>
+        <v>0.14721841269386</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5658343504082026</v>
+      </c>
+      <c r="R19">
+        <v>0.8024724917431552</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.673428272707099</v>
+        <v>4.114577962307465</v>
       </c>
       <c r="C20">
-        <v>1.343111810323876</v>
+        <v>1.408568357804256</v>
       </c>
       <c r="D20">
-        <v>0.05003462546230963</v>
+        <v>0.03941402574763986</v>
       </c>
       <c r="E20">
-        <v>0.06185752132019218</v>
+        <v>0.06319397151792394</v>
       </c>
       <c r="F20">
-        <v>2.488870052282863</v>
+        <v>1.983208869622018</v>
       </c>
       <c r="G20">
-        <v>0.0007939326558696957</v>
+        <v>0.002406517857944657</v>
       </c>
       <c r="H20">
-        <v>0.0001876201964599034</v>
+        <v>0.0002341790807487421</v>
       </c>
       <c r="I20">
-        <v>0.002453637427361599</v>
+        <v>0.00302786675566491</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.284213431003423</v>
+        <v>0.9365412904598571</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3697631481811925</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3419503927641188</v>
       </c>
       <c r="N20">
-        <v>0.2539291553332106</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7675270631841471</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9960417118045441</v>
+        <v>0.2710471847906319</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7030008474201139</v>
+      </c>
+      <c r="R20">
+        <v>0.8255356120316453</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.296618008637381</v>
+        <v>4.420745093840708</v>
       </c>
       <c r="C21">
-        <v>1.52485947410679</v>
+        <v>1.436629223542923</v>
       </c>
       <c r="D21">
-        <v>0.05079453365135755</v>
+        <v>0.04019269247473467</v>
       </c>
       <c r="E21">
-        <v>0.06920197605038503</v>
+        <v>0.06347561699098669</v>
       </c>
       <c r="F21">
-        <v>2.778213143154943</v>
+        <v>1.956305721220104</v>
       </c>
       <c r="G21">
-        <v>0.0007867325019864767</v>
+        <v>0.06423309120492604</v>
       </c>
       <c r="H21">
-        <v>0.0010976929663431</v>
+        <v>0.0007109645569416401</v>
       </c>
       <c r="I21">
-        <v>0.004947719736930978</v>
+        <v>0.004406571683071903</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.405795934928108</v>
+        <v>0.8949311779899389</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3417041790872091</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3416651515390328</v>
       </c>
       <c r="N21">
-        <v>0.2948442944958032</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8749137065166863</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9742092559700737</v>
+        <v>0.3068607490144899</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7663990613917662</v>
+      </c>
+      <c r="R21">
+        <v>0.7632031829129389</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.700942879644742</v>
+        <v>4.601127761359692</v>
       </c>
       <c r="C22">
-        <v>1.644690105677398</v>
+        <v>1.44638034466044</v>
       </c>
       <c r="D22">
-        <v>0.05109733197489952</v>
+        <v>0.04182663691216604</v>
       </c>
       <c r="E22">
-        <v>0.07494358361769393</v>
+        <v>0.06463548727482937</v>
       </c>
       <c r="F22">
-        <v>2.962601821328008</v>
+        <v>1.921100332912545</v>
       </c>
       <c r="G22">
-        <v>0.0007821467410580662</v>
+        <v>0.1540447776724108</v>
       </c>
       <c r="H22">
-        <v>0.002352990304983926</v>
+        <v>0.001317448659710729</v>
       </c>
       <c r="I22">
-        <v>0.007095870559991724</v>
+        <v>0.005205065879832382</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.481586104236513</v>
+        <v>0.8594745051557311</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3213524325301762</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3377451118542609</v>
       </c>
       <c r="N22">
-        <v>0.3152652757728447</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9401151358663355</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9577200773732599</v>
+        <v>0.323237811668136</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8004745473508805</v>
+      </c>
+      <c r="R22">
+        <v>0.7275851754510188</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.493506729898627</v>
+        <v>4.537329631182786</v>
       </c>
       <c r="C23">
-        <v>1.579029222476834</v>
+        <v>1.456458199874419</v>
       </c>
       <c r="D23">
-        <v>0.0511053777464241</v>
+        <v>0.04066749640581868</v>
       </c>
       <c r="E23">
-        <v>0.07187339449741792</v>
+        <v>0.06438289695068278</v>
       </c>
       <c r="F23">
-        <v>2.871234682577494</v>
+        <v>1.972224277842741</v>
       </c>
       <c r="G23">
-        <v>0.0007845534164566923</v>
+        <v>0.08784967115818887</v>
       </c>
       <c r="H23">
-        <v>0.001635535629576745</v>
+        <v>0.0009984651807501965</v>
       </c>
       <c r="I23">
-        <v>0.005609707634212313</v>
+        <v>0.00446655179993094</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.446237893365861</v>
+        <v>0.8947683336494165</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3378072268799244</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.346530383965522</v>
       </c>
       <c r="N23">
-        <v>0.3041540779542515</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.906242858139386</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9691946730257399</v>
+        <v>0.3148966998254252</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7868455348641206</v>
+      </c>
+      <c r="R23">
+        <v>0.7488079437450796</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.698751976844392</v>
+        <v>4.136499017772849</v>
       </c>
       <c r="C24">
-        <v>1.336984719230372</v>
+        <v>1.404278310785742</v>
       </c>
       <c r="D24">
-        <v>0.05079673418741493</v>
+        <v>0.03958581104241299</v>
       </c>
       <c r="E24">
-        <v>0.06067519345809735</v>
+        <v>0.06201388195106006</v>
       </c>
       <c r="F24">
-        <v>2.519243731393118</v>
+        <v>2.009437365323549</v>
       </c>
       <c r="G24">
-        <v>0.0007938655946161825</v>
+        <v>0.002232481464297109</v>
       </c>
       <c r="H24">
-        <v>8.647416273976916E-05</v>
+        <v>0.0001366780817668722</v>
       </c>
       <c r="I24">
-        <v>0.0020087841080354</v>
+        <v>0.002483243348654796</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.306094338089437</v>
+        <v>0.9538700396365272</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3762645689132782</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3484560380969555</v>
       </c>
       <c r="N24">
-        <v>0.2628018555427332</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7771569911330616</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.009402077722804</v>
+        <v>0.2803610893475792</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7120781946122463</v>
+      </c>
+      <c r="R24">
+        <v>0.8321597942936236</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.84980392635083</v>
+        <v>3.42448666732821</v>
       </c>
       <c r="C25">
-        <v>1.083033628547469</v>
+        <v>1.157622573806236</v>
       </c>
       <c r="D25">
-        <v>0.05033087060484753</v>
+        <v>0.03814934045335194</v>
       </c>
       <c r="E25">
-        <v>0.04936189530955382</v>
+        <v>0.05432313325244742</v>
       </c>
       <c r="F25">
-        <v>2.150400272167914</v>
+        <v>1.744923053490865</v>
       </c>
       <c r="G25">
-        <v>0.0008042462795330698</v>
+        <v>0.001953904055609801</v>
       </c>
       <c r="H25">
-        <v>0.0006383912807530479</v>
+        <v>0.0002255867371017128</v>
       </c>
       <c r="I25">
-        <v>0.001175604628600446</v>
+        <v>0.001316107075755468</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.159003468806432</v>
+        <v>0.8700439076390296</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.365245042574756</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2939413012296228</v>
       </c>
       <c r="N25">
-        <v>0.218878283205612</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6392165144212569</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.055044536937991</v>
+        <v>0.2366897790974036</v>
       </c>
       <c r="Q25">
+        <v>0.5904915441135472</v>
+      </c>
+      <c r="R25">
+        <v>0.8876695171686713</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
